--- a/operation/start/start.xlsx
+++ b/operation/start/start.xlsx
@@ -187,7 +187,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +197,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,7 +221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,6 +238,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -869,7 +884,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -984,17 +999,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>191011</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1012,17 +1027,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1060,7 +1075,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026">
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1080,12 +1095,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026"/>
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1029">
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1029">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1105,12 +1120,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1029"/>
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1029"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1030">
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1030">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1130,12 +1145,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1030"/>
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1030"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1031">
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1031">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1155,12 +1170,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1031"/>
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1031"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1032">
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1032">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1180,12 +1195,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1032"/>
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1032"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1033">
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1033">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1205,7 +1220,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1033"/>
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1033"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/operation/start/start.xlsx
+++ b/operation/start/start.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580"/>
+    <workbookView windowWidth="21600" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,157 +18,115 @@
   <definedNames>
     <definedName name="_Toc489950447" localSheetId="0">Sheet1!$A$8</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t xml:space="preserve">start item </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
   </si>
   <si>
     <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>shortcut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>exchange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>shfe server/medi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JINrui Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>connect by Xshell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>910096(苏艳利)medi</t>
+  </si>
+  <si>
+    <t>158249</t>
+  </si>
+  <si>
+    <t>sh</t>
   </si>
   <si>
     <t>shfe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金瑞快期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>910110(王栋)</t>
+  </si>
+  <si>
+    <t>300910</t>
+  </si>
+  <si>
+    <t>910210(付广超)</t>
+  </si>
+  <si>
+    <t>010016</t>
   </si>
   <si>
     <t>dce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>910211(周建东)</t>
+  </si>
+  <si>
+    <t>010321</t>
   </si>
   <si>
     <t>zce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300910</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shfe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shfe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>158249</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄志平(113169)</t>
+  </si>
+  <si>
+    <t>黄志和(910223)</t>
+  </si>
+  <si>
+    <t>周安东(21000000)</t>
   </si>
   <si>
     <t>zad200306</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>910110(王栋)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>910210(付广超)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>910211(周建东)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄志平(113169)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄志和(910223)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周安东(21000000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>910096(苏艳利)medi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐承昱(910225)</t>
+  </si>
+  <si>
+    <t>xcy240697</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -176,7 +134,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -184,10 +141,154 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,18 +297,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -215,9 +502,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -231,31 +760,94 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="49" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="49" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="49" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="49" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="49" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="49" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -268,7 +860,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -284,7 +876,7 @@
           <xdr:row>1</xdr:row>
           <xdr:rowOff>361950</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1025" name="Object 1" hidden="1">
               <a:extLst>
@@ -297,8 +889,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="3076575" y="171450"/>
+              <a:ext cx="1085850" cy="361950"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -325,7 +917,7 @@
           <xdr:row>2</xdr:row>
           <xdr:rowOff>523875</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1026" name="Object 2" hidden="1">
               <a:extLst>
@@ -338,8 +930,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="3076575" y="605155"/>
+              <a:ext cx="1000125" cy="523875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -366,7 +958,7 @@
           <xdr:row>3</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1029" name="Object 5" hidden="1">
               <a:extLst>
@@ -379,8 +971,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="3076575" y="1229360"/>
+              <a:ext cx="1085850" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -407,7 +999,7 @@
           <xdr:row>4</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1030" name="Object 6" hidden="1">
               <a:extLst>
@@ -420,8 +1012,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="3076575" y="1581785"/>
+              <a:ext cx="1085850" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -448,7 +1040,7 @@
           <xdr:row>5</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1031" name="Object 7" hidden="1">
               <a:extLst>
@@ -461,8 +1053,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="3076575" y="1934210"/>
+              <a:ext cx="1085850" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -489,7 +1081,7 @@
           <xdr:row>6</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1032" name="Object 8" hidden="1">
               <a:extLst>
@@ -502,8 +1094,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="3076575" y="2286635"/>
+              <a:ext cx="1085850" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -530,7 +1122,7 @@
           <xdr:row>7</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1033" name="Object 9" hidden="1">
               <a:extLst>
@@ -543,8 +1135,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="3076575" y="2620010"/>
+              <a:ext cx="1085850" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -560,7 +1152,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <oleLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" progId="Package">
     <oleItems>
       <oleItem name="'" icon="1" preferPic="1"/>
@@ -570,10 +1162,10 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <oleLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" progId="Package">
     <oleItems>
-      <oleItem name="'" advise="1" preferPic="1"/>
+      <oleItem name="'" icon="1" preferPic="1"/>
     </oleItems>
   </oleLink>
 </externalLink>
@@ -583,12 +1175,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F18" totalsRowShown="0">
   <autoFilter ref="A1:F18"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="start item "/>
-    <tableColumn id="6" name="password" dataDxfId="0"/>
-    <tableColumn id="2" name="group"/>
-    <tableColumn id="3" name="shortcut"/>
-    <tableColumn id="4" name="exchange"/>
-    <tableColumn id="5" name="comment"/>
+    <tableColumn id="1" name="start item " dataDxfId="0"/>
+    <tableColumn id="2" name="password" dataDxfId="1"/>
+    <tableColumn id="3" name="group" dataDxfId="2"/>
+    <tableColumn id="4" name="shortcut" dataDxfId="3"/>
+    <tableColumn id="5" name="exchange" dataDxfId="4"/>
+    <tableColumn id="6" name="comment" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -875,19 +1467,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="2" customWidth="1"/>
@@ -897,15 +1489,15 @@
     <col min="6" max="6" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -917,141 +1509,149 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="34.15" customHeight="1" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="49.15" customHeight="1" spans="1:6">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="27.75" customHeight="1" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="27.75" customHeight="1" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="27.75" customHeight="1" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6">
+        <v>191011</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="42.75" customHeight="1" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7">
+        <v>272817</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="7">
-        <v>191011</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="5">
-        <v>272817</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1025">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId4">
+        <oleObject shapeId="1025" progId="Package" dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL">
+          <objectPr defaultSize="0" r:id="rId3">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -1070,13 +1670,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1025"/>
+        <oleObject shapeId="1025" progId="Package" dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
+        <oleObject shapeId="1026" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL">
+          <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -1095,13 +1695,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1026"/>
+        <oleObject shapeId="1026" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1029">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
+        <oleObject shapeId="1029" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL">
+          <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -1120,13 +1720,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1029"/>
+        <oleObject shapeId="1029" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1030">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
+        <oleObject shapeId="1030" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL">
+          <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -1145,13 +1745,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1030"/>
+        <oleObject shapeId="1030" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1031">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
+        <oleObject shapeId="1031" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL">
+          <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -1170,13 +1770,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1031"/>
+        <oleObject shapeId="1031" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1032">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
+        <oleObject shapeId="1032" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL">
+          <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -1195,13 +1795,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1032"/>
+        <oleObject shapeId="1032" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1033">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
+        <oleObject shapeId="1033" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL">
+          <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -1220,40 +1820,46 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1033"/>
+        <oleObject shapeId="1033" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/operation/start/start.xlsx
+++ b/operation/start/start.xlsx
@@ -16,14 +16,14 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_Toc489950447" localSheetId="0">Sheet1!$A$8</definedName>
+    <definedName name="_Toc489950447" localSheetId="0">Sheet1!$A$7</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t xml:space="preserve">start item </t>
   </si>
@@ -40,16 +40,7 @@
     <t>exchange</t>
   </si>
   <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>shfe server/medi</t>
-  </si>
-  <si>
-    <t>JINrui Server</t>
-  </si>
-  <si>
-    <t>connect by Xshell</t>
+    <t>账户拥有者</t>
   </si>
   <si>
     <t>910096(苏艳利)medi</t>
@@ -64,7 +55,7 @@
     <t>shfe</t>
   </si>
   <si>
-    <t>金瑞快期</t>
+    <t>王瀛</t>
   </si>
   <si>
     <t>910110(王栋)</t>
@@ -94,6 +85,9 @@
     <t>黄志平(113169)</t>
   </si>
   <si>
+    <t>黄志平</t>
+  </si>
+  <si>
     <t>黄志和(910223)</t>
   </si>
   <si>
@@ -110,6 +104,12 @@
   </si>
   <si>
     <t>xcy240697</t>
+  </si>
+  <si>
+    <t>刘丙元(21000067)</t>
+  </si>
+  <si>
+    <t>042778</t>
   </si>
 </sst>
 </file>
@@ -117,8 +117,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -145,6 +145,135 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -158,137 +287,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,7 +303,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,31 +381,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,127 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,26 +497,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,21 +562,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -577,26 +571,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,10 +602,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,137 +614,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,12 +752,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -908,13 +896,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1000125</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>523875</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
@@ -930,8 +918,49 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3076575" y="605155"/>
+              <a:off x="3076575" y="171450"/>
               <a:ext cx="1000125" cy="523875"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>323850</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3076575" y="795655"/>
+              <a:ext cx="1085850" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -960,10 +989,10 @@
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
+            <xdr:cNvPr id="1030" name="Object 6" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1029"/>
+                  <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -971,7 +1000,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3076575" y="1229360"/>
+              <a:off x="3076575" y="1148080"/>
               <a:ext cx="1085850" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1001,10 +1030,10 @@
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1030" name="Object 6" hidden="1">
+            <xdr:cNvPr id="1031" name="Object 7" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1030"/>
+                  <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1012,7 +1041,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3076575" y="1581785"/>
+              <a:off x="3076575" y="1500505"/>
               <a:ext cx="1085850" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1042,10 +1071,10 @@
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1031" name="Object 7" hidden="1">
+            <xdr:cNvPr id="1032" name="Object 8" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1031"/>
+                  <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1053,7 +1082,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3076575" y="1934210"/>
+              <a:off x="3076575" y="1852930"/>
               <a:ext cx="1085850" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1083,47 +1112,6 @@
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1032" name="Object 8" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1032"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3076575" y="2286635"/>
-              <a:ext cx="1085850" cy="323850"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
             <xdr:cNvPr id="1033" name="Object 9" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
@@ -1135,7 +1123,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3076575" y="2620010"/>
+              <a:off x="3076575" y="2186305"/>
               <a:ext cx="1085850" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1172,15 +1160,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F18" totalsRowShown="0">
-  <autoFilter ref="A1:F18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F17" totalsRowShown="0">
+  <autoFilter ref="A1:F17"/>
   <tableColumns count="6">
     <tableColumn id="1" name="start item " dataDxfId="0"/>
     <tableColumn id="2" name="password" dataDxfId="1"/>
     <tableColumn id="3" name="group" dataDxfId="2"/>
     <tableColumn id="4" name="shortcut" dataDxfId="3"/>
     <tableColumn id="5" name="exchange" dataDxfId="4"/>
-    <tableColumn id="6" name="comment" dataDxfId="5"/>
+    <tableColumn id="6" name="账户拥有者" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1476,7 +1464,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1509,56 +1497,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="34.15" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="49.15" customHeight="1" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" ht="49.15" customHeight="1" spans="1:6">
-      <c r="A3" t="s">
+    <row r="3" ht="27.75" customHeight="1" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" ht="27.75" customHeight="1" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="27.75" customHeight="1" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1571,74 +1562,83 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="6" ht="27.75" customHeight="1" spans="1:6">
-      <c r="A6" s="5" t="s">
+    <row r="6" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4">
+        <v>191011</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" ht="42.75" customHeight="1" spans="1:6">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
+      <c r="B7" s="5">
+        <v>272817</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:5">
-      <c r="A7" s="1" t="s">
+    <row r="8" s="1" customFormat="1" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6">
-        <v>191011</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="8" ht="42.75" customHeight="1" spans="1:5">
-      <c r="A8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="7">
-        <v>272817</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1681,13 +1681,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1000125</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>523875</xdr:rowOff>
               </to>
             </anchor>
@@ -1701,6 +1701,31 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="1029" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>323850</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="1029" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="1030" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL">
           <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -1720,12 +1745,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1029" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL"/>
+        <oleObject shapeId="1030" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1030" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL">
+        <oleObject shapeId="1031" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL">
           <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -1745,12 +1770,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1030" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL"/>
+        <oleObject shapeId="1031" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1031" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL">
+        <oleObject shapeId="1032" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL">
           <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -1770,12 +1795,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1031" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL"/>
+        <oleObject shapeId="1032" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1032" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL">
+        <oleObject shapeId="1033" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL">
           <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -1788,31 +1813,6 @@
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject shapeId="1032" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject shapeId="1033" progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL">
-          <objectPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
                 <xdr:rowOff>323850</xdr:rowOff>
               </to>
             </anchor>
